--- a/config/modelos/frames_nf_v11.xlsx
+++ b/config/modelos/frames_nf_v11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\pipeline_extracao_documentos\6_geral_administacao\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\config\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C8D2E7-B3FF-4DA1-B305-A8C784A98709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E44C38-3841-433E-B715-FE7AAE7ED3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -1078,19 +1078,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AH463"/>
+  <dimension ref="A1:AH232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W148" sqref="W148"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -1099,13 +1098,13 @@
     <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" customWidth="1"/>
     <col min="9" max="9" width="19.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.7265625" customWidth="1"/>
     <col min="18" max="18" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.453125" bestFit="1" customWidth="1"/>
@@ -1122,7 +1121,7 @@
     <col min="34" max="34" width="4.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1225,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1238,7 +1237,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="16">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -1302,8 +1301,8 @@
       </c>
       <c r="AH2" s="11"/>
     </row>
-    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1380,8 +1379,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1460,8 +1459,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1544,8 +1543,8 @@
       </c>
       <c r="AH5" s="14"/>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1622,8 +1621,8 @@
       </c>
       <c r="AH6" s="7"/>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1700,8 +1699,8 @@
       </c>
       <c r="AH7" s="7"/>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1778,8 +1777,8 @@
       </c>
       <c r="AH8" s="7"/>
     </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1866,8 +1865,8 @@
       </c>
       <c r="AH9" s="14"/>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1950,8 +1949,8 @@
       </c>
       <c r="AH10" s="7"/>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2034,8 +2033,8 @@
       </c>
       <c r="AH11" s="7"/>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2118,8 +2117,8 @@
       </c>
       <c r="AH12" s="7"/>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2202,8 +2201,8 @@
       </c>
       <c r="AH13" s="7"/>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2282,8 +2281,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2366,8 +2365,8 @@
       </c>
       <c r="AH15" s="14"/>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2444,8 +2443,8 @@
       </c>
       <c r="AH16" s="7"/>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2522,8 +2521,8 @@
       </c>
       <c r="AH17" s="7"/>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2600,8 +2599,8 @@
       </c>
       <c r="AH18" s="7"/>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -2676,8 +2675,8 @@
       </c>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2754,8 +2753,8 @@
       </c>
       <c r="AH20" s="7"/>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2832,8 +2831,8 @@
       </c>
       <c r="AH21" s="7"/>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -2908,8 +2907,8 @@
       </c>
       <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -2986,8 +2985,8 @@
       </c>
       <c r="AH23" s="7"/>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3064,8 +3063,8 @@
       </c>
       <c r="AH24" s="7"/>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3142,8 +3141,8 @@
       </c>
       <c r="AH25" s="7"/>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3220,8 +3219,8 @@
       </c>
       <c r="AH26" s="7"/>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3300,8 +3299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -3384,8 +3383,8 @@
       </c>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3462,8 +3461,8 @@
       </c>
       <c r="AH29" s="7"/>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3540,8 +3539,8 @@
       </c>
       <c r="AH30" s="7"/>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3618,8 +3617,8 @@
       </c>
       <c r="AH31" s="7"/>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3696,8 +3695,8 @@
       </c>
       <c r="AH32" s="7"/>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -3780,8 +3779,8 @@
       </c>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3858,8 +3857,8 @@
       </c>
       <c r="AH34" s="7"/>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -3936,8 +3935,8 @@
       </c>
       <c r="AH35" s="7"/>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -4020,8 +4019,8 @@
       </c>
       <c r="AH36" s="14"/>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -4098,8 +4097,8 @@
       </c>
       <c r="AH37" s="7"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -4176,8 +4175,8 @@
       </c>
       <c r="AH38" s="7"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4254,8 +4253,8 @@
       </c>
       <c r="AH39" s="7"/>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -4332,8 +4331,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -4416,8 +4415,8 @@
       </c>
       <c r="AH41" s="14"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4500,8 +4499,8 @@
       </c>
       <c r="AH42" s="1"/>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -4584,8 +4583,8 @@
       </c>
       <c r="AH43" s="14"/>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4662,8 +4661,8 @@
       </c>
       <c r="AH44" s="7"/>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4746,8 +4745,8 @@
       </c>
       <c r="AH45" s="1"/>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -4822,8 +4821,8 @@
       </c>
       <c r="AH46" s="14"/>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -4912,8 +4911,8 @@
       </c>
       <c r="AH47" s="7"/>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5002,8 +5001,8 @@
       </c>
       <c r="AH48" s="7"/>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5082,8 +5081,8 @@
       </c>
       <c r="AH49" s="1"/>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -5164,8 +5163,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -5250,8 +5249,8 @@
       </c>
       <c r="AH51" s="14"/>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5332,8 +5331,8 @@
       </c>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5414,8 +5413,8 @@
       </c>
       <c r="AH53" s="1"/>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -5496,8 +5495,8 @@
       </c>
       <c r="AH54" s="1"/>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5578,8 +5577,8 @@
       </c>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5660,8 +5659,8 @@
       </c>
       <c r="AH56" s="1"/>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5742,8 +5741,8 @@
       </c>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5824,8 +5823,8 @@
       </c>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5906,8 +5905,8 @@
       </c>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5988,8 +5987,8 @@
       </c>
       <c r="AH60" s="1"/>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -6070,8 +6069,8 @@
       </c>
       <c r="AH61" s="1"/>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -6152,8 +6151,8 @@
       </c>
       <c r="AH62" s="1"/>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -6234,8 +6233,8 @@
       </c>
       <c r="AH63" s="1"/>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -6316,8 +6315,8 @@
       </c>
       <c r="AH64" s="1"/>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -6398,8 +6397,8 @@
       </c>
       <c r="AH65" s="1"/>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -6480,8 +6479,8 @@
       </c>
       <c r="AH66" s="1"/>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -6558,8 +6557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -6642,8 +6641,8 @@
       </c>
       <c r="AH68" s="14"/>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -6716,8 +6715,8 @@
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A70" s="15">
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -6798,8 +6797,8 @@
       </c>
       <c r="AH70" s="14"/>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -6878,8 +6877,8 @@
       </c>
       <c r="AH71" s="1"/>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -6958,8 +6957,8 @@
       </c>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -7038,8 +7037,8 @@
       </c>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -7118,8 +7117,8 @@
       </c>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -7198,8 +7197,8 @@
       </c>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -7278,8 +7277,8 @@
       </c>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A77" s="15">
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -7356,8 +7355,8 @@
       </c>
       <c r="AH77" s="14"/>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -7429,7 +7428,7 @@
       <c r="AH78" s="1"/>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -7505,7 +7504,7 @@
       <c r="AH79" s="11"/>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A80" s="9">
+      <c r="A80" s="10">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -7583,7 +7582,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -7663,7 +7662,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A82" s="14">
+      <c r="A82" s="15">
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -7747,7 +7746,7 @@
       <c r="AH82" s="14"/>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -7825,7 +7824,7 @@
       <c r="AH83" s="7"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -7903,7 +7902,7 @@
       <c r="AH84" s="7"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -7981,7 +7980,7 @@
       <c r="AH85" s="7"/>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A86" s="14">
+      <c r="A86" s="15">
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -8069,7 +8068,7 @@
       <c r="AH86" s="14"/>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -8153,7 +8152,7 @@
       <c r="AH87" s="7"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -8237,7 +8236,7 @@
       <c r="AH88" s="7"/>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -8321,7 +8320,7 @@
       <c r="AH89" s="7"/>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A90" s="7">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -8405,7 +8404,7 @@
       <c r="AH90" s="7"/>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -8485,7 +8484,7 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A92" s="14">
+      <c r="A92" s="15">
         <v>91</v>
       </c>
       <c r="B92" s="14" t="s">
@@ -8569,7 +8568,7 @@
       <c r="AH92" s="14"/>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -8647,7 +8646,7 @@
       <c r="AH93" s="7"/>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -8725,7 +8724,7 @@
       <c r="AH94" s="7"/>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -8803,7 +8802,7 @@
       <c r="AH95" s="7"/>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A96" s="14">
+      <c r="A96" s="15">
         <v>95</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -8879,7 +8878,7 @@
       <c r="AH96" s="14"/>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -8957,7 +8956,7 @@
       <c r="AH97" s="7"/>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -9035,7 +9034,7 @@
       <c r="AH98" s="7"/>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A99" s="14">
+      <c r="A99" s="15">
         <v>98</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -9111,7 +9110,7 @@
       <c r="AH99" s="14"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -9189,7 +9188,7 @@
       <c r="AH100" s="7"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -9267,7 +9266,7 @@
       <c r="AH101" s="7"/>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A102" s="7">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -9345,7 +9344,7 @@
       <c r="AH102" s="7"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -9423,7 +9422,7 @@
       <c r="AH103" s="7"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -9503,7 +9502,7 @@
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A105" s="14">
+      <c r="A105" s="15">
         <v>104</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -9587,7 +9586,7 @@
       <c r="AH105" s="14"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A106" s="7">
+      <c r="A106" s="8">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -9665,7 +9664,7 @@
       <c r="AH106" s="7"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -9743,7 +9742,7 @@
       <c r="AH107" s="7"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A108" s="7">
+      <c r="A108" s="8">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -9821,7 +9820,7 @@
       <c r="AH108" s="7"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -9899,7 +9898,7 @@
       <c r="AH109" s="7"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A110" s="14">
+      <c r="A110" s="15">
         <v>109</v>
       </c>
       <c r="B110" s="14" t="s">
@@ -9983,7 +9982,7 @@
       <c r="AH110" s="14"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A111" s="7">
+      <c r="A111" s="8">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -10061,7 +10060,7 @@
       <c r="AH111" s="7"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A112" s="7">
+      <c r="A112" s="8">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -10139,7 +10138,7 @@
       <c r="AH112" s="7"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A113" s="14">
+      <c r="A113" s="15">
         <v>112</v>
       </c>
       <c r="B113" s="14" t="s">
@@ -10223,7 +10222,7 @@
       <c r="AH113" s="14"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -10301,7 +10300,7 @@
       <c r="AH114" s="7"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -10379,7 +10378,7 @@
       <c r="AH115" s="7"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A116" s="7">
+      <c r="A116" s="8">
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
@@ -10457,7 +10456,7 @@
       <c r="AH116" s="7"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -10535,7 +10534,7 @@
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A118" s="14">
+      <c r="A118" s="15">
         <v>117</v>
       </c>
       <c r="B118" s="14" t="s">
@@ -10619,7 +10618,7 @@
       <c r="AH118" s="14"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -10703,7 +10702,7 @@
       <c r="AH119" s="1"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A120" s="14">
+      <c r="A120" s="15">
         <v>119</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -10787,7 +10786,7 @@
       <c r="AH120" s="14"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -10865,7 +10864,7 @@
       <c r="AH121" s="7"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -10949,7 +10948,7 @@
       <c r="AH122" s="1"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A123" s="14">
+      <c r="A123" s="15">
         <v>122</v>
       </c>
       <c r="B123" s="14" t="s">
@@ -11037,7 +11036,7 @@
       <c r="AH123" s="14"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A124" s="7">
+      <c r="A124" s="8">
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
@@ -11131,7 +11130,7 @@
       <c r="AH124" s="7"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
@@ -11225,7 +11224,7 @@
       <c r="AH125" s="7"/>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -11305,7 +11304,7 @@
       <c r="AH126" s="1"/>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -11387,7 +11386,7 @@
       </c>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A128" s="14">
+      <c r="A128" s="15">
         <v>127</v>
       </c>
       <c r="B128" s="14" t="s">
@@ -11473,7 +11472,7 @@
       <c r="AH128" s="14"/>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -11555,7 +11554,7 @@
       <c r="AH129" s="1"/>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -11637,7 +11636,7 @@
       <c r="AH130" s="1"/>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -11719,7 +11718,7 @@
       <c r="AH131" s="1"/>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -11801,7 +11800,7 @@
       <c r="AH132" s="1"/>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -11883,7 +11882,7 @@
       <c r="AH133" s="1"/>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -11965,7 +11964,7 @@
       <c r="AH134" s="1"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -12047,7 +12046,7 @@
       <c r="AH135" s="1"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -12129,7 +12128,7 @@
       <c r="AH136" s="1"/>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -12211,7 +12210,7 @@
       <c r="AH137" s="1"/>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -12293,7 +12292,7 @@
       <c r="AH138" s="1"/>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -12375,7 +12374,7 @@
       <c r="AH139" s="1"/>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -12457,7 +12456,7 @@
       <c r="AH140" s="1"/>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -12539,7 +12538,7 @@
       <c r="AH141" s="1"/>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -12621,7 +12620,7 @@
       <c r="AH142" s="1"/>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -12703,7 +12702,7 @@
       <c r="AH143" s="1"/>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -12781,7 +12780,7 @@
       </c>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A145" s="14">
+      <c r="A145" s="15">
         <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
@@ -12865,7 +12864,7 @@
       <c r="AH145" s="14"/>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -12943,7 +12942,7 @@
       <c r="AH146" s="1"/>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A147" s="14">
+      <c r="A147" s="15">
         <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -13025,7 +13024,7 @@
       <c r="AH147" s="14"/>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -13105,7 +13104,7 @@
       <c r="AH148" s="1"/>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -13185,7 +13184,7 @@
       <c r="AH149" s="1"/>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -13265,7 +13264,7 @@
       <c r="AH150" s="1"/>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -13345,7 +13344,7 @@
       <c r="AH151" s="1"/>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -13425,7 +13424,7 @@
       <c r="AH152" s="1"/>
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -13505,7 +13504,7 @@
       <c r="AH153" s="1"/>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A154" s="14">
+      <c r="A154" s="15">
         <v>153</v>
       </c>
       <c r="B154" s="14" t="s">
@@ -13583,7 +13582,7 @@
       <c r="AH154" s="14"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -13658,8 +13657,8 @@
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="11">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A156" s="12">
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -13734,8 +13733,8 @@
       </c>
       <c r="AH156" s="11"/>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="9">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A157" s="10">
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
@@ -13812,8 +13811,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="4">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -13892,8 +13891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="14">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A159" s="15">
         <v>158</v>
       </c>
       <c r="B159" s="14" t="s">
@@ -13976,8 +13975,8 @@
       </c>
       <c r="AH159" s="14"/>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="7">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A160" s="8">
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -14054,8 +14053,8 @@
       </c>
       <c r="AH160" s="7"/>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="7">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A161" s="8">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -14132,8 +14131,8 @@
       </c>
       <c r="AH161" s="7"/>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="7">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A162" s="8">
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -14210,8 +14209,8 @@
       </c>
       <c r="AH162" s="7"/>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="14">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A163" s="15">
         <v>162</v>
       </c>
       <c r="B163" s="14" t="s">
@@ -14260,16 +14259,16 @@
       <c r="S163" s="14"/>
       <c r="T163" s="14"/>
       <c r="U163" s="14">
-        <v>3285</v>
+        <v>3210</v>
       </c>
       <c r="V163" s="14">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="W163" s="14">
-        <v>3874</v>
+        <v>3806</v>
       </c>
       <c r="X163" s="14">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="Y163" s="14">
         <v>434</v>
@@ -14298,8 +14297,8 @@
       </c>
       <c r="AH163" s="14"/>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="7">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A164" s="8">
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
@@ -14382,8 +14381,8 @@
       </c>
       <c r="AH164" s="7"/>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="7">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A165" s="8">
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
@@ -14466,8 +14465,8 @@
       </c>
       <c r="AH165" s="7"/>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="7">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A166" s="8">
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -14550,8 +14549,8 @@
       </c>
       <c r="AH166" s="7"/>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="7">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A167" s="8">
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
@@ -14634,8 +14633,8 @@
       </c>
       <c r="AH167" s="7"/>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="4">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -14714,8 +14713,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="14">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A169" s="15">
         <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
@@ -14798,8 +14797,8 @@
       </c>
       <c r="AH169" s="14"/>
     </row>
-    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="7">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A170" s="8">
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -14876,8 +14875,8 @@
       </c>
       <c r="AH170" s="7"/>
     </row>
-    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="7">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A171" s="8">
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -14954,8 +14953,8 @@
       </c>
       <c r="AH171" s="7"/>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="7">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A172" s="8">
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -15032,8 +15031,8 @@
       </c>
       <c r="AH172" s="7"/>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="14">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A173" s="15">
         <v>172</v>
       </c>
       <c r="B173" s="14" t="s">
@@ -15108,8 +15107,8 @@
       </c>
       <c r="AH173" s="14"/>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="7">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A174" s="8">
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -15186,8 +15185,8 @@
       </c>
       <c r="AH174" s="7"/>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="7">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A175" s="8">
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
@@ -15264,8 +15263,8 @@
       </c>
       <c r="AH175" s="7"/>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="14">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A176" s="15">
         <v>175</v>
       </c>
       <c r="B176" s="14" t="s">
@@ -15340,8 +15339,8 @@
       </c>
       <c r="AH176" s="14"/>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="7">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A177" s="8">
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
@@ -15418,8 +15417,8 @@
       </c>
       <c r="AH177" s="7"/>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="7">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A178" s="8">
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
@@ -15496,8 +15495,8 @@
       </c>
       <c r="AH178" s="7"/>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="7">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A179" s="8">
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
@@ -15574,8 +15573,8 @@
       </c>
       <c r="AH179" s="7"/>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="7">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A180" s="8">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
@@ -15652,8 +15651,8 @@
       </c>
       <c r="AH180" s="7"/>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="4">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -15732,8 +15731,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="14">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A182" s="15">
         <v>181</v>
       </c>
       <c r="B182" s="14" t="s">
@@ -15816,8 +15815,8 @@
       </c>
       <c r="AH182" s="14"/>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="7">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A183" s="8">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
@@ -15894,8 +15893,8 @@
       </c>
       <c r="AH183" s="7"/>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="7">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A184" s="8">
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
@@ -15972,8 +15971,8 @@
       </c>
       <c r="AH184" s="7"/>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="7">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A185" s="8">
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
@@ -16050,8 +16049,8 @@
       </c>
       <c r="AH185" s="7"/>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="7">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A186" s="8">
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
@@ -16128,8 +16127,8 @@
       </c>
       <c r="AH186" s="7"/>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="14">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A187" s="15">
         <v>186</v>
       </c>
       <c r="B187" s="14" t="s">
@@ -16212,8 +16211,8 @@
       </c>
       <c r="AH187" s="14"/>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="7">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A188" s="8">
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -16290,8 +16289,8 @@
       </c>
       <c r="AH188" s="7"/>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="7">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A189" s="8">
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
@@ -16368,8 +16367,8 @@
       </c>
       <c r="AH189" s="7"/>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="14">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A190" s="15">
         <v>189</v>
       </c>
       <c r="B190" s="14" t="s">
@@ -16452,8 +16451,8 @@
       </c>
       <c r="AH190" s="14"/>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="7">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A191" s="8">
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
@@ -16530,8 +16529,8 @@
       </c>
       <c r="AH191" s="7"/>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="7">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A192" s="8">
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
@@ -16608,8 +16607,8 @@
       </c>
       <c r="AH192" s="7"/>
     </row>
-    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="7">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A193" s="8">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
@@ -16686,8 +16685,8 @@
       </c>
       <c r="AH193" s="7"/>
     </row>
-    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="4">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -16764,8 +16763,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="14">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A195" s="15">
         <v>194</v>
       </c>
       <c r="B195" s="14" t="s">
@@ -16848,8 +16847,8 @@
       </c>
       <c r="AH195" s="14"/>
     </row>
-    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -16932,8 +16931,8 @@
       </c>
       <c r="AH196" s="1"/>
     </row>
-    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="14">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A197" s="15">
         <v>196</v>
       </c>
       <c r="B197" s="14" t="s">
@@ -17016,8 +17015,8 @@
       </c>
       <c r="AH197" s="14"/>
     </row>
-    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="7">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A198" s="8">
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
@@ -17094,8 +17093,8 @@
       </c>
       <c r="AH198" s="7"/>
     </row>
-    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -17178,8 +17177,8 @@
       </c>
       <c r="AH199" s="1"/>
     </row>
-    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="14">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A200" s="15">
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
@@ -17196,8 +17195,12 @@
       <c r="G200" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H200" s="14"/>
-      <c r="I200" s="15"/>
+      <c r="H200" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="J200" s="14" t="s">
         <v>43</v>
       </c>
@@ -17242,10 +17245,18 @@
         <v>99</v>
       </c>
       <c r="AA200" s="14"/>
-      <c r="AB200" s="14"/>
-      <c r="AC200" s="14"/>
-      <c r="AD200" s="14"/>
-      <c r="AE200" s="14"/>
+      <c r="AB200" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC200" s="14">
+        <v>500</v>
+      </c>
+      <c r="AD200" s="14">
+        <v>600</v>
+      </c>
+      <c r="AE200" s="14">
+        <v>700</v>
+      </c>
       <c r="AF200" s="14">
         <v>0</v>
       </c>
@@ -17254,8 +17265,8 @@
       </c>
       <c r="AH200" s="14"/>
     </row>
-    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="7">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A201" s="8">
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
@@ -17272,8 +17283,12 @@
       <c r="G201" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H201" s="7"/>
-      <c r="I201" s="8"/>
+      <c r="H201" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J201" s="7" t="s">
         <v>45</v>
       </c>
@@ -17344,8 +17359,8 @@
       </c>
       <c r="AH201" s="7"/>
     </row>
-    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="7">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A202" s="8">
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
@@ -17362,8 +17377,12 @@
       <c r="G202" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H202" s="7"/>
-      <c r="I202" s="8"/>
+      <c r="H202" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I202" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J202" s="7" t="s">
         <v>45</v>
       </c>
@@ -17434,8 +17453,8 @@
       </c>
       <c r="AH202" s="7"/>
     </row>
-    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -17514,8 +17533,8 @@
       </c>
       <c r="AH203" s="1"/>
     </row>
-    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="4">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A204" s="5">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -17596,8 +17615,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="14">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A205" s="15">
         <v>204</v>
       </c>
       <c r="B205" s="14" t="s">
@@ -17682,8 +17701,8 @@
       </c>
       <c r="AH205" s="14"/>
     </row>
-    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -17735,13 +17754,13 @@
         <v>700</v>
       </c>
       <c r="V206" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W206" s="1">
         <v>1150</v>
       </c>
       <c r="X206" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y206" s="1">
         <f t="shared" si="4"/>
@@ -17749,7 +17768,7 @@
       </c>
       <c r="Z206" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
@@ -17764,8 +17783,8 @@
       </c>
       <c r="AH206" s="1"/>
     </row>
-    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -17817,13 +17836,13 @@
         <v>1100</v>
       </c>
       <c r="V207" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W207" s="1">
         <v>1550</v>
       </c>
       <c r="X207" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y207" s="1">
         <f t="shared" si="4"/>
@@ -17831,7 +17850,7 @@
       </c>
       <c r="Z207" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
@@ -17846,8 +17865,8 @@
       </c>
       <c r="AH207" s="1"/>
     </row>
-    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -17899,13 +17918,13 @@
         <v>1550</v>
       </c>
       <c r="V208" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W208" s="1">
         <v>1900</v>
       </c>
       <c r="X208" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y208" s="1">
         <f t="shared" si="4"/>
@@ -17913,7 +17932,7 @@
       </c>
       <c r="Z208" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
@@ -17928,8 +17947,8 @@
       </c>
       <c r="AH208" s="1"/>
     </row>
-    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -17981,13 +18000,13 @@
         <v>1870</v>
       </c>
       <c r="V209" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W209" s="1">
         <v>2350</v>
       </c>
       <c r="X209" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y209" s="1">
         <f t="shared" si="4"/>
@@ -17995,7 +18014,7 @@
       </c>
       <c r="Z209" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
@@ -18010,8 +18029,8 @@
       </c>
       <c r="AH209" s="1"/>
     </row>
-    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -18063,13 +18082,13 @@
         <v>2260</v>
       </c>
       <c r="V210" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W210" s="1">
         <v>2650</v>
       </c>
       <c r="X210" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y210" s="1">
         <f t="shared" si="4"/>
@@ -18077,7 +18096,7 @@
       </c>
       <c r="Z210" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
@@ -18092,8 +18111,8 @@
       </c>
       <c r="AH210" s="1"/>
     </row>
-    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -18145,13 +18164,13 @@
         <v>2650</v>
       </c>
       <c r="V211" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W211" s="1">
         <v>3040</v>
       </c>
       <c r="X211" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y211" s="1">
         <f t="shared" si="4"/>
@@ -18159,7 +18178,7 @@
       </c>
       <c r="Z211" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
@@ -18174,8 +18193,8 @@
       </c>
       <c r="AH211" s="1"/>
     </row>
-    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -18227,13 +18246,13 @@
         <v>3040</v>
       </c>
       <c r="V212" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W212" s="1">
         <v>3430</v>
       </c>
       <c r="X212" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y212" s="1">
         <f t="shared" si="4"/>
@@ -18241,7 +18260,7 @@
       </c>
       <c r="Z212" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
@@ -18256,8 +18275,8 @@
       </c>
       <c r="AH212" s="1"/>
     </row>
-    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -18309,13 +18328,13 @@
         <v>3430</v>
       </c>
       <c r="V213" s="1">
-        <v>3900</v>
+        <v>3945</v>
       </c>
       <c r="W213" s="1">
         <v>3874</v>
       </c>
       <c r="X213" s="1">
-        <v>4200</v>
+        <v>4308</v>
       </c>
       <c r="Y213" s="1">
         <f t="shared" si="4"/>
@@ -18323,7 +18342,7 @@
       </c>
       <c r="Z213" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
@@ -18338,8 +18357,8 @@
       </c>
       <c r="AH213" s="1"/>
     </row>
-    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -18391,13 +18410,13 @@
         <v>700</v>
       </c>
       <c r="V214" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W214" s="1">
         <v>1100</v>
       </c>
       <c r="X214" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y214" s="1">
         <f t="shared" si="4"/>
@@ -18405,7 +18424,7 @@
       </c>
       <c r="Z214" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
@@ -18420,8 +18439,8 @@
       </c>
       <c r="AH214" s="1"/>
     </row>
-    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -18473,13 +18492,13 @@
         <v>1100</v>
       </c>
       <c r="V215" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W215" s="1">
         <v>1600</v>
       </c>
       <c r="X215" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y215" s="1">
         <f t="shared" si="4"/>
@@ -18487,7 +18506,7 @@
       </c>
       <c r="Z215" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
@@ -18502,8 +18521,8 @@
       </c>
       <c r="AH215" s="1"/>
     </row>
-    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -18555,13 +18574,13 @@
         <v>1500</v>
       </c>
       <c r="V216" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W216" s="1">
         <v>1900</v>
       </c>
       <c r="X216" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y216" s="1">
         <f t="shared" si="4"/>
@@ -18569,7 +18588,7 @@
       </c>
       <c r="Z216" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
@@ -18584,8 +18603,8 @@
       </c>
       <c r="AH216" s="1"/>
     </row>
-    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -18637,13 +18656,13 @@
         <v>1900</v>
       </c>
       <c r="V217" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W217" s="1">
         <v>2300</v>
       </c>
       <c r="X217" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y217" s="1">
         <f t="shared" si="4"/>
@@ -18651,7 +18670,7 @@
       </c>
       <c r="Z217" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
@@ -18666,8 +18685,8 @@
       </c>
       <c r="AH217" s="1"/>
     </row>
-    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -18719,13 +18738,13 @@
         <v>2300</v>
       </c>
       <c r="V218" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W218" s="1">
         <v>2700</v>
       </c>
       <c r="X218" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y218" s="1">
         <f t="shared" si="4"/>
@@ -18733,7 +18752,7 @@
       </c>
       <c r="Z218" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
@@ -18748,8 +18767,8 @@
       </c>
       <c r="AH218" s="1"/>
     </row>
-    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -18801,13 +18820,13 @@
         <v>2700</v>
       </c>
       <c r="V219" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W219" s="1">
         <v>3250</v>
       </c>
       <c r="X219" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y219" s="1">
         <f t="shared" si="4"/>
@@ -18815,7 +18834,7 @@
       </c>
       <c r="Z219" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
@@ -18830,8 +18849,8 @@
       </c>
       <c r="AH219" s="1"/>
     </row>
-    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="1">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -18883,13 +18902,13 @@
         <v>3300</v>
       </c>
       <c r="V220" s="1">
-        <v>4200</v>
+        <v>4134</v>
       </c>
       <c r="W220" s="1">
         <v>3874</v>
       </c>
       <c r="X220" s="1">
-        <v>4500</v>
+        <v>4635</v>
       </c>
       <c r="Y220" s="1">
         <f t="shared" si="4"/>
@@ -18897,7 +18916,7 @@
       </c>
       <c r="Z220" s="1">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
@@ -18912,8 +18931,8 @@
       </c>
       <c r="AH220" s="1"/>
     </row>
-    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="4">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A221" s="5">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -18990,8 +19009,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="14">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A222" s="15">
         <v>221</v>
       </c>
       <c r="B222" s="14" t="s">
@@ -19074,8 +19093,8 @@
       </c>
       <c r="AH222" s="14"/>
     </row>
-    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -19118,20 +19137,24 @@
       <c r="Q223" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
+      <c r="R223" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="T223" s="1"/>
       <c r="U223" s="1">
         <v>300</v>
       </c>
       <c r="V223" s="1">
-        <v>4553</v>
+        <v>4654</v>
       </c>
       <c r="W223" s="1">
-        <v>3874</v>
+        <v>3794</v>
       </c>
       <c r="X223" s="1">
-        <v>4690</v>
+        <v>4842</v>
       </c>
       <c r="Y223" s="1">
         <v>1777</v>
@@ -19148,8 +19171,8 @@
       <c r="AG223" s="1"/>
       <c r="AH223" s="1"/>
     </row>
-    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="14">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A224" s="15">
         <v>223</v>
       </c>
       <c r="B224" s="14" t="s">
@@ -19230,8 +19253,8 @@
       </c>
       <c r="AH224" s="14"/>
     </row>
-    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -19280,16 +19303,16 @@
         <v>158</v>
       </c>
       <c r="U225" s="1">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="V225" s="1">
-        <v>4779</v>
+        <v>4851</v>
       </c>
       <c r="W225" s="1">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="X225" s="1">
-        <v>4990</v>
+        <v>5040</v>
       </c>
       <c r="Y225" s="1">
         <v>291</v>
@@ -19310,8 +19333,8 @@
       </c>
       <c r="AH225" s="1"/>
     </row>
-    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -19363,13 +19386,13 @@
         <v>887</v>
       </c>
       <c r="V226" s="1">
-        <v>4779</v>
+        <v>4851</v>
       </c>
       <c r="W226" s="1">
-        <v>1530</v>
+        <v>1594</v>
       </c>
       <c r="X226" s="1">
-        <v>4990</v>
+        <v>5040</v>
       </c>
       <c r="Y226" s="1">
         <v>328</v>
@@ -19390,8 +19413,8 @@
       </c>
       <c r="AH226" s="1"/>
     </row>
-    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -19443,13 +19466,13 @@
         <v>1530</v>
       </c>
       <c r="V227" s="1">
-        <v>4779</v>
+        <v>4851</v>
       </c>
       <c r="W227" s="1">
-        <v>2153</v>
+        <v>2198</v>
       </c>
       <c r="X227" s="1">
-        <v>4990</v>
+        <v>5040</v>
       </c>
       <c r="Y227" s="1">
         <v>299</v>
@@ -19470,8 +19493,8 @@
       </c>
       <c r="AH227" s="1"/>
     </row>
-    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -19523,13 +19546,13 @@
         <v>2153</v>
       </c>
       <c r="V228" s="1">
-        <v>4779</v>
+        <v>4851</v>
       </c>
       <c r="W228" s="1">
-        <v>2658</v>
+        <v>2652</v>
       </c>
       <c r="X228" s="1">
-        <v>4990</v>
+        <v>5040</v>
       </c>
       <c r="Y228" s="1">
         <v>262</v>
@@ -19550,8 +19573,8 @@
       </c>
       <c r="AH228" s="1"/>
     </row>
-    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -19603,13 +19626,13 @@
         <v>2656</v>
       </c>
       <c r="V229" s="1">
-        <v>4779</v>
+        <v>4851</v>
       </c>
       <c r="W229" s="1">
-        <v>3274</v>
+        <v>3262</v>
       </c>
       <c r="X229" s="1">
-        <v>4990</v>
+        <v>5040</v>
       </c>
       <c r="Y229" s="1">
         <v>310</v>
@@ -19630,8 +19653,8 @@
       </c>
       <c r="AH229" s="1"/>
     </row>
-    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="1">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -19683,13 +19706,13 @@
         <v>3274</v>
       </c>
       <c r="V230" s="1">
-        <v>4779</v>
+        <v>4851</v>
       </c>
       <c r="W230" s="1">
-        <v>3874</v>
+        <v>3838</v>
       </c>
       <c r="X230" s="1">
-        <v>4990</v>
+        <v>5040</v>
       </c>
       <c r="Y230" s="1">
         <v>284</v>
@@ -19710,8 +19733,8 @@
       </c>
       <c r="AH230" s="1"/>
     </row>
-    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="14">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A231" s="15">
         <v>230</v>
       </c>
       <c r="B231" s="14" t="s">
@@ -19788,8 +19811,8 @@
       </c>
       <c r="AH231" s="14"/>
     </row>
-    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="1">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -19832,22 +19855,26 @@
       <c r="Q232" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
+      <c r="R232" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="T232" s="1" t="s">
         <v>175</v>
       </c>
       <c r="U232" s="1">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="V232" s="1">
-        <v>5049</v>
+        <v>5185</v>
       </c>
       <c r="W232" s="1">
-        <v>3874</v>
+        <v>3799</v>
       </c>
       <c r="X232" s="1">
-        <v>5334</v>
+        <v>5392</v>
       </c>
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
@@ -19860,245 +19887,8 @@
       <c r="AG232" s="1"/>
       <c r="AH232" s="1"/>
     </row>
-    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="336" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="337" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="338" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="339" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="340" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="341" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="342" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="343" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="344" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="345" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="346" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="347" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="348" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="349" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="350" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="351" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="352" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="353" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="354" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="355" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="356" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="357" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="358" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="359" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="360" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="361" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="362" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="363" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="364" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="365" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="366" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="367" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="368" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="369" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="370" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="371" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="372" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="373" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="374" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="375" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="376" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="377" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="378" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="379" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="380" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="381" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="382" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="383" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="384" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="385" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="386" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="387" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="388" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="389" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="390" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="391" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="392" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="393" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="394" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="395" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="396" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="397" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="398" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="399" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="400" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="401" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="402" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="403" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="404" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="405" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="406" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="407" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="408" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="409" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="410" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="411" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="412" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="413" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="414" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="415" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="416" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="417" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="418" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="419" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="420" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="421" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="422" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="423" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="424" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="425" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="426" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="427" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="428" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="429" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="430" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="431" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="432" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="433" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="434" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="435" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="436" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="437" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="438" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="439" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="440" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="441" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="442" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="443" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="444" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="445" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="446" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="447" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="448" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="449" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="450" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="451" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="452" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="453" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="454" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="455" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="456" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="457" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="458" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="459" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="460" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="461" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="462" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="463" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:AH463" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SPA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AH463" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/modelos/frames_nf_v11.xlsx
+++ b/config/modelos/frames_nf_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\config\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E44C38-3841-433E-B715-FE7AAE7ED3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671C98AC-BAAE-4553-90AD-FDADC22FF069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -1081,10 +1081,10 @@
   <dimension ref="A1:AH232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,7 +1107,7 @@
     <col min="17" max="17" width="41.7265625" customWidth="1"/>
     <col min="18" max="18" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.08984375" customWidth="1"/>
     <col min="21" max="24" width="5.7265625" customWidth="1"/>
     <col min="25" max="25" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
@@ -1237,7 +1237,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="16">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -1827,16 +1827,16 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14">
-        <v>3285</v>
+        <v>3210</v>
       </c>
       <c r="V9" s="14">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="W9" s="14">
-        <v>3874</v>
+        <v>3806</v>
       </c>
       <c r="X9" s="14">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="Y9" s="14">
         <v>434</v>
@@ -4763,8 +4763,12 @@
       <c r="G46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="H46" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="J46" s="14" t="s">
         <v>43</v>
       </c>
@@ -4839,8 +4843,12 @@
       <c r="G47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J47" s="7" t="s">
         <v>45</v>
       </c>
@@ -4929,8 +4937,12 @@
       <c r="G48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J48" s="7" t="s">
         <v>45</v>
       </c>

--- a/config/modelos/frames_nf_v11.xlsx
+++ b/config/modelos/frames_nf_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\config\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671C98AC-BAAE-4553-90AD-FDADC22FF069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD74A55-1CE8-4FEE-8C85-A4B62AC5A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,13 +1078,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH232"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AH463"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1833,7 +1834,7 @@
         <v>229</v>
       </c>
       <c r="W9" s="14">
-        <v>3806</v>
+        <v>4000</v>
       </c>
       <c r="X9" s="14">
         <v>806</v>
@@ -7439,7 +7440,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -7515,7 +7516,7 @@
       </c>
       <c r="AH79" s="11"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7757,7 +7758,7 @@
       </c>
       <c r="AH82" s="14"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -7835,7 +7836,7 @@
       </c>
       <c r="AH83" s="7"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -7913,7 +7914,7 @@
       </c>
       <c r="AH84" s="7"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -7991,7 +7992,7 @@
       </c>
       <c r="AH85" s="7"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -8079,7 +8080,7 @@
       </c>
       <c r="AH86" s="14"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -8163,7 +8164,7 @@
       </c>
       <c r="AH87" s="7"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -8247,7 +8248,7 @@
       </c>
       <c r="AH88" s="7"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -8331,7 +8332,7 @@
       </c>
       <c r="AH89" s="7"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -8415,7 +8416,7 @@
       </c>
       <c r="AH90" s="7"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -8579,7 +8580,7 @@
       </c>
       <c r="AH92" s="14"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -8657,7 +8658,7 @@
       </c>
       <c r="AH93" s="7"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -8735,7 +8736,7 @@
       </c>
       <c r="AH94" s="7"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -8813,7 +8814,7 @@
       </c>
       <c r="AH95" s="7"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -8889,7 +8890,7 @@
       </c>
       <c r="AH96" s="14"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -8967,7 +8968,7 @@
       </c>
       <c r="AH97" s="7"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -9045,7 +9046,7 @@
       </c>
       <c r="AH98" s="7"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -9121,7 +9122,7 @@
       </c>
       <c r="AH99" s="14"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -9199,7 +9200,7 @@
       </c>
       <c r="AH100" s="7"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -9277,7 +9278,7 @@
       </c>
       <c r="AH101" s="7"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -9355,7 +9356,7 @@
       </c>
       <c r="AH102" s="7"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -9433,7 +9434,7 @@
       </c>
       <c r="AH103" s="7"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -9597,7 +9598,7 @@
       </c>
       <c r="AH105" s="14"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -9675,7 +9676,7 @@
       </c>
       <c r="AH106" s="7"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -9753,7 +9754,7 @@
       </c>
       <c r="AH107" s="7"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -9831,7 +9832,7 @@
       </c>
       <c r="AH108" s="7"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -9909,7 +9910,7 @@
       </c>
       <c r="AH109" s="7"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -9993,7 +9994,7 @@
       </c>
       <c r="AH110" s="14"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -10071,7 +10072,7 @@
       </c>
       <c r="AH111" s="7"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -10149,7 +10150,7 @@
       </c>
       <c r="AH112" s="7"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -10233,7 +10234,7 @@
       </c>
       <c r="AH113" s="14"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -10311,7 +10312,7 @@
       </c>
       <c r="AH114" s="7"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -10389,7 +10390,7 @@
       </c>
       <c r="AH115" s="7"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -10467,7 +10468,7 @@
       </c>
       <c r="AH116" s="7"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -10629,7 +10630,7 @@
       </c>
       <c r="AH118" s="14"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -10713,7 +10714,7 @@
       </c>
       <c r="AH119" s="1"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -10797,7 +10798,7 @@
       </c>
       <c r="AH120" s="14"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -10875,7 +10876,7 @@
       </c>
       <c r="AH121" s="7"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -10959,7 +10960,7 @@
       </c>
       <c r="AH122" s="1"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -11047,7 +11048,7 @@
       </c>
       <c r="AH123" s="14"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -11141,7 +11142,7 @@
       </c>
       <c r="AH124" s="7"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -11235,7 +11236,7 @@
       </c>
       <c r="AH125" s="7"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -11315,7 +11316,7 @@
       </c>
       <c r="AH126" s="1"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -11483,7 +11484,7 @@
       </c>
       <c r="AH128" s="14"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -11565,7 +11566,7 @@
       </c>
       <c r="AH129" s="1"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -11647,7 +11648,7 @@
       </c>
       <c r="AH130" s="1"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -11729,7 +11730,7 @@
       </c>
       <c r="AH131" s="1"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -11811,7 +11812,7 @@
       </c>
       <c r="AH132" s="1"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -11893,7 +11894,7 @@
       </c>
       <c r="AH133" s="1"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -11975,7 +11976,7 @@
       </c>
       <c r="AH134" s="1"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -12057,7 +12058,7 @@
       </c>
       <c r="AH135" s="1"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -12139,7 +12140,7 @@
       </c>
       <c r="AH136" s="1"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -12221,7 +12222,7 @@
       </c>
       <c r="AH137" s="1"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -12303,7 +12304,7 @@
       </c>
       <c r="AH138" s="1"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -12385,7 +12386,7 @@
       </c>
       <c r="AH139" s="1"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -12467,7 +12468,7 @@
       </c>
       <c r="AH140" s="1"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -12549,7 +12550,7 @@
       </c>
       <c r="AH141" s="1"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -12631,7 +12632,7 @@
       </c>
       <c r="AH142" s="1"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -12713,7 +12714,7 @@
       </c>
       <c r="AH143" s="1"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -12875,7 +12876,7 @@
       </c>
       <c r="AH145" s="14"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -12953,7 +12954,7 @@
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -13035,7 +13036,7 @@
       </c>
       <c r="AH147" s="14"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -13115,7 +13116,7 @@
       </c>
       <c r="AH148" s="1"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -13195,7 +13196,7 @@
       </c>
       <c r="AH149" s="1"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -13275,7 +13276,7 @@
       </c>
       <c r="AH150" s="1"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -13355,7 +13356,7 @@
       </c>
       <c r="AH151" s="1"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -13435,7 +13436,7 @@
       </c>
       <c r="AH152" s="1"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -13515,7 +13516,7 @@
       </c>
       <c r="AH153" s="1"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -13593,7 +13594,7 @@
       </c>
       <c r="AH154" s="14"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -13669,7 +13670,7 @@
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>155</v>
       </c>
@@ -13745,7 +13746,7 @@
       </c>
       <c r="AH156" s="11"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="10">
         <v>156</v>
       </c>
@@ -13823,7 +13824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -13903,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -13987,7 +13988,7 @@
       </c>
       <c r="AH159" s="14"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -14065,7 +14066,7 @@
       </c>
       <c r="AH160" s="7"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -14143,7 +14144,7 @@
       </c>
       <c r="AH161" s="7"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -14221,7 +14222,7 @@
       </c>
       <c r="AH162" s="7"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -14309,7 +14310,7 @@
       </c>
       <c r="AH163" s="14"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -14393,7 +14394,7 @@
       </c>
       <c r="AH164" s="7"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -14477,7 +14478,7 @@
       </c>
       <c r="AH165" s="7"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -14561,7 +14562,7 @@
       </c>
       <c r="AH166" s="7"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -14645,7 +14646,7 @@
       </c>
       <c r="AH167" s="7"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -14725,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -14809,7 +14810,7 @@
       </c>
       <c r="AH169" s="14"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -14887,7 +14888,7 @@
       </c>
       <c r="AH170" s="7"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -14965,7 +14966,7 @@
       </c>
       <c r="AH171" s="7"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -15043,7 +15044,7 @@
       </c>
       <c r="AH172" s="7"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -15119,7 +15120,7 @@
       </c>
       <c r="AH173" s="14"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -15197,7 +15198,7 @@
       </c>
       <c r="AH174" s="7"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -15275,7 +15276,7 @@
       </c>
       <c r="AH175" s="7"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -15351,7 +15352,7 @@
       </c>
       <c r="AH176" s="14"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -15429,7 +15430,7 @@
       </c>
       <c r="AH177" s="7"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -15507,7 +15508,7 @@
       </c>
       <c r="AH178" s="7"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -15585,7 +15586,7 @@
       </c>
       <c r="AH179" s="7"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -15663,7 +15664,7 @@
       </c>
       <c r="AH180" s="7"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -15743,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -15827,7 +15828,7 @@
       </c>
       <c r="AH182" s="14"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -15905,7 +15906,7 @@
       </c>
       <c r="AH183" s="7"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -15983,7 +15984,7 @@
       </c>
       <c r="AH184" s="7"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -16061,7 +16062,7 @@
       </c>
       <c r="AH185" s="7"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -16139,7 +16140,7 @@
       </c>
       <c r="AH186" s="7"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -16223,7 +16224,7 @@
       </c>
       <c r="AH187" s="14"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -16301,7 +16302,7 @@
       </c>
       <c r="AH188" s="7"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -16379,7 +16380,7 @@
       </c>
       <c r="AH189" s="7"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -16463,7 +16464,7 @@
       </c>
       <c r="AH190" s="14"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -16541,7 +16542,7 @@
       </c>
       <c r="AH191" s="7"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -16619,7 +16620,7 @@
       </c>
       <c r="AH192" s="7"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -16697,7 +16698,7 @@
       </c>
       <c r="AH193" s="7"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -16859,7 +16860,7 @@
       </c>
       <c r="AH195" s="14"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -16943,7 +16944,7 @@
       </c>
       <c r="AH196" s="1"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -17027,7 +17028,7 @@
       </c>
       <c r="AH197" s="14"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -17105,7 +17106,7 @@
       </c>
       <c r="AH198" s="7"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -17189,7 +17190,7 @@
       </c>
       <c r="AH199" s="1"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -17277,7 +17278,7 @@
       </c>
       <c r="AH200" s="14"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -17371,7 +17372,7 @@
       </c>
       <c r="AH201" s="7"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -17465,7 +17466,7 @@
       </c>
       <c r="AH202" s="7"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -17545,7 +17546,7 @@
       </c>
       <c r="AH203" s="1"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -17627,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -17713,7 +17714,7 @@
       </c>
       <c r="AH205" s="14"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -17795,7 +17796,7 @@
       </c>
       <c r="AH206" s="1"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -17877,7 +17878,7 @@
       </c>
       <c r="AH207" s="1"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -17959,7 +17960,7 @@
       </c>
       <c r="AH208" s="1"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -18041,7 +18042,7 @@
       </c>
       <c r="AH209" s="1"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -18123,7 +18124,7 @@
       </c>
       <c r="AH210" s="1"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -18205,7 +18206,7 @@
       </c>
       <c r="AH211" s="1"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -18287,7 +18288,7 @@
       </c>
       <c r="AH212" s="1"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -18369,7 +18370,7 @@
       </c>
       <c r="AH213" s="1"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -18451,7 +18452,7 @@
       </c>
       <c r="AH214" s="1"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -18533,7 +18534,7 @@
       </c>
       <c r="AH215" s="1"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -18615,7 +18616,7 @@
       </c>
       <c r="AH216" s="1"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -18697,7 +18698,7 @@
       </c>
       <c r="AH217" s="1"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -18779,7 +18780,7 @@
       </c>
       <c r="AH218" s="1"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -18861,7 +18862,7 @@
       </c>
       <c r="AH219" s="1"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -18943,7 +18944,7 @@
       </c>
       <c r="AH220" s="1"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -19105,7 +19106,7 @@
       </c>
       <c r="AH222" s="14"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -19183,7 +19184,7 @@
       <c r="AG223" s="1"/>
       <c r="AH223" s="1"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -19265,7 +19266,7 @@
       </c>
       <c r="AH224" s="14"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -19345,7 +19346,7 @@
       </c>
       <c r="AH225" s="1"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -19425,7 +19426,7 @@
       </c>
       <c r="AH226" s="1"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -19505,7 +19506,7 @@
       </c>
       <c r="AH227" s="1"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -19585,7 +19586,7 @@
       </c>
       <c r="AH228" s="1"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -19665,7 +19666,7 @@
       </c>
       <c r="AH229" s="1"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -19745,7 +19746,7 @@
       </c>
       <c r="AH230" s="1"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -19823,7 +19824,7 @@
       </c>
       <c r="AH231" s="14"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -19899,8 +19900,245 @@
       <c r="AG232" s="1"/>
       <c r="AH232" s="1"/>
     </row>
+    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="336" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="337" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="338" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="339" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="340" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="341" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="342" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="343" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="344" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="345" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="346" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="347" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="348" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="349" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="350" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="351" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="352" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="353" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="354" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="355" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="356" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="357" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="358" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="359" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="360" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="361" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="362" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="363" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="364" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="365" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="366" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="367" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="368" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="369" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="370" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="371" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="372" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="373" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="374" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="375" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="376" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="377" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="378" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="379" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="380" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="381" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="382" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="383" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="384" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="385" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="386" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="387" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="388" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="389" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="390" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="391" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="392" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="393" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="394" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="395" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="396" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="397" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="398" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="399" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="400" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="401" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="402" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="403" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="404" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="405" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="406" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="407" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="408" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="409" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="410" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="411" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="412" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="413" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="414" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="415" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="416" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="417" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="418" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="419" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="420" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="421" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="422" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="423" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="424" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="425" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="426" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="427" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="428" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="429" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="430" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="431" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="432" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="433" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="434" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="435" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="436" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="437" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="438" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="439" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="440" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="441" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="442" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="443" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="444" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="445" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="446" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="447" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="448" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="449" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="450" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="451" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="452" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="453" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="454" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="455" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="456" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="457" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="458" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="459" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="460" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="461" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="462" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="463" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:AH463" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AH463" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MAGE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/modelos/frames_nf_v11.xlsx
+++ b/config/modelos/frames_nf_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\config\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD74A55-1CE8-4FEE-8C85-A4B62AC5A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6F9B7-F457-4ECB-8C7D-50AE029751FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:AH463"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomRight" activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/modelos/frames_nf_v11.xlsx
+++ b/config/modelos/frames_nf_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\config\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6F9B7-F457-4ECB-8C7D-50AE029751FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9AF82-1943-4C9D-A6B9-E80C733EC083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -622,6 +622,15 @@
   <si>
     <t>Sistema desenvolvido</t>
   </si>
+  <si>
+    <t>data_prestador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sframe_field_only </t>
+  </si>
+  <si>
+    <t>context_matcher</t>
+  </si>
 </sst>
 </file>
 
@@ -1078,14 +1087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AH463"/>
+  <dimension ref="A1:AH232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T78" sqref="T78"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,7 +1246,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="16">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -4680,8 +4688,12 @@
       <c r="G45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="3"/>
+      <c r="H45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J45" s="1" t="s">
         <v>97</v>
       </c>
@@ -5280,8 +5292,12 @@
       <c r="G52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="3"/>
+      <c r="H52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J52" s="1" t="s">
         <v>97</v>
       </c>
@@ -5362,8 +5378,12 @@
       <c r="G53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="3"/>
+      <c r="H53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J53" s="1" t="s">
         <v>97</v>
       </c>
@@ -5444,8 +5464,12 @@
       <c r="G54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="3"/>
+      <c r="H54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J54" s="1" t="s">
         <v>97</v>
       </c>
@@ -5526,8 +5550,12 @@
       <c r="G55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="3"/>
+      <c r="H55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J55" s="1" t="s">
         <v>97</v>
       </c>
@@ -5608,8 +5636,12 @@
       <c r="G56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="3"/>
+      <c r="H56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J56" s="1" t="s">
         <v>97</v>
       </c>
@@ -5690,8 +5722,12 @@
       <c r="G57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="3"/>
+      <c r="H57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J57" s="1" t="s">
         <v>97</v>
       </c>
@@ -5772,8 +5808,12 @@
       <c r="G58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="3"/>
+      <c r="H58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>97</v>
       </c>
@@ -5854,8 +5894,12 @@
       <c r="G59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="3"/>
+      <c r="H59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>97</v>
       </c>
@@ -5936,8 +5980,12 @@
       <c r="G60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="3"/>
+      <c r="H60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J60" s="1" t="s">
         <v>97</v>
       </c>
@@ -6018,8 +6066,12 @@
       <c r="G61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="3"/>
+      <c r="H61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J61" s="1" t="s">
         <v>97</v>
       </c>
@@ -6100,8 +6152,12 @@
       <c r="G62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="3"/>
+      <c r="H62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J62" s="1" t="s">
         <v>97</v>
       </c>
@@ -6182,8 +6238,12 @@
       <c r="G63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="3"/>
+      <c r="H63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J63" s="1" t="s">
         <v>97</v>
       </c>
@@ -6264,8 +6324,12 @@
       <c r="G64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="3"/>
+      <c r="H64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J64" s="1" t="s">
         <v>97</v>
       </c>
@@ -6346,8 +6410,12 @@
       <c r="G65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="3"/>
+      <c r="H65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J65" s="1" t="s">
         <v>97</v>
       </c>
@@ -6428,8 +6496,12 @@
       <c r="G66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="3"/>
+      <c r="H66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J66" s="1" t="s">
         <v>97</v>
       </c>
@@ -7440,7 +7512,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -7516,7 +7588,7 @@
       </c>
       <c r="AH79" s="11"/>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -7594,7 +7666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -7674,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7758,7 +7830,7 @@
       </c>
       <c r="AH82" s="14"/>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -7836,7 +7908,7 @@
       </c>
       <c r="AH83" s="7"/>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -7914,7 +7986,7 @@
       </c>
       <c r="AH84" s="7"/>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -7992,7 +8064,7 @@
       </c>
       <c r="AH85" s="7"/>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -8080,7 +8152,7 @@
       </c>
       <c r="AH86" s="14"/>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -8164,7 +8236,7 @@
       </c>
       <c r="AH87" s="7"/>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -8248,7 +8320,7 @@
       </c>
       <c r="AH88" s="7"/>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -8332,7 +8404,7 @@
       </c>
       <c r="AH89" s="7"/>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -8416,7 +8488,7 @@
       </c>
       <c r="AH90" s="7"/>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -8496,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -8580,7 +8652,7 @@
       </c>
       <c r="AH92" s="14"/>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -8658,7 +8730,7 @@
       </c>
       <c r="AH93" s="7"/>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -8736,7 +8808,7 @@
       </c>
       <c r="AH94" s="7"/>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -8814,7 +8886,7 @@
       </c>
       <c r="AH95" s="7"/>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -8890,7 +8962,7 @@
       </c>
       <c r="AH96" s="14"/>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -8968,7 +9040,7 @@
       </c>
       <c r="AH97" s="7"/>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -9046,7 +9118,7 @@
       </c>
       <c r="AH98" s="7"/>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -9122,7 +9194,7 @@
       </c>
       <c r="AH99" s="14"/>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -9200,7 +9272,7 @@
       </c>
       <c r="AH100" s="7"/>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -9278,7 +9350,7 @@
       </c>
       <c r="AH101" s="7"/>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -9356,7 +9428,7 @@
       </c>
       <c r="AH102" s="7"/>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -9434,7 +9506,7 @@
       </c>
       <c r="AH103" s="7"/>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -9514,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -9598,7 +9670,7 @@
       </c>
       <c r="AH105" s="14"/>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -9676,7 +9748,7 @@
       </c>
       <c r="AH106" s="7"/>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -9754,7 +9826,7 @@
       </c>
       <c r="AH107" s="7"/>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -9832,7 +9904,7 @@
       </c>
       <c r="AH108" s="7"/>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -9910,7 +9982,7 @@
       </c>
       <c r="AH109" s="7"/>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -9994,7 +10066,7 @@
       </c>
       <c r="AH110" s="14"/>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -10072,7 +10144,7 @@
       </c>
       <c r="AH111" s="7"/>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -10150,7 +10222,7 @@
       </c>
       <c r="AH112" s="7"/>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -10234,7 +10306,7 @@
       </c>
       <c r="AH113" s="14"/>
     </row>
-    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -10312,7 +10384,7 @@
       </c>
       <c r="AH114" s="7"/>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -10390,7 +10462,7 @@
       </c>
       <c r="AH115" s="7"/>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -10468,7 +10540,7 @@
       </c>
       <c r="AH116" s="7"/>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -10546,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -10630,7 +10702,7 @@
       </c>
       <c r="AH118" s="14"/>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -10714,7 +10786,7 @@
       </c>
       <c r="AH119" s="1"/>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -10798,7 +10870,7 @@
       </c>
       <c r="AH120" s="14"/>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -10876,7 +10948,7 @@
       </c>
       <c r="AH121" s="7"/>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -10894,8 +10966,12 @@
       <c r="G122" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="3"/>
+      <c r="H122" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J122" s="1" t="s">
         <v>97</v>
       </c>
@@ -10960,7 +11036,7 @@
       </c>
       <c r="AH122" s="1"/>
     </row>
-    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -11048,7 +11124,7 @@
       </c>
       <c r="AH123" s="14"/>
     </row>
-    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -11142,7 +11218,7 @@
       </c>
       <c r="AH124" s="7"/>
     </row>
-    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -11236,7 +11312,7 @@
       </c>
       <c r="AH125" s="7"/>
     </row>
-    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -11316,7 +11392,7 @@
       </c>
       <c r="AH126" s="1"/>
     </row>
-    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -11398,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -11484,7 +11560,7 @@
       </c>
       <c r="AH128" s="14"/>
     </row>
-    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -11502,8 +11578,12 @@
       <c r="G129" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H129" s="1"/>
-      <c r="I129" s="3"/>
+      <c r="H129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J129" s="1" t="s">
         <v>97</v>
       </c>
@@ -11566,7 +11646,7 @@
       </c>
       <c r="AH129" s="1"/>
     </row>
-    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -11584,8 +11664,12 @@
       <c r="G130" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H130" s="1"/>
-      <c r="I130" s="3"/>
+      <c r="H130" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J130" s="1" t="s">
         <v>97</v>
       </c>
@@ -11648,7 +11732,7 @@
       </c>
       <c r="AH130" s="1"/>
     </row>
-    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -11666,8 +11750,12 @@
       <c r="G131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H131" s="1"/>
-      <c r="I131" s="3"/>
+      <c r="H131" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J131" s="1" t="s">
         <v>97</v>
       </c>
@@ -11730,7 +11818,7 @@
       </c>
       <c r="AH131" s="1"/>
     </row>
-    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -11748,8 +11836,12 @@
       <c r="G132" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H132" s="1"/>
-      <c r="I132" s="3"/>
+      <c r="H132" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J132" s="1" t="s">
         <v>97</v>
       </c>
@@ -11812,7 +11904,7 @@
       </c>
       <c r="AH132" s="1"/>
     </row>
-    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -11830,8 +11922,12 @@
       <c r="G133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H133" s="1"/>
-      <c r="I133" s="3"/>
+      <c r="H133" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J133" s="1" t="s">
         <v>97</v>
       </c>
@@ -11894,7 +11990,7 @@
       </c>
       <c r="AH133" s="1"/>
     </row>
-    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -11912,8 +12008,12 @@
       <c r="G134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H134" s="1"/>
-      <c r="I134" s="3"/>
+      <c r="H134" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J134" s="1" t="s">
         <v>97</v>
       </c>
@@ -11976,7 +12076,7 @@
       </c>
       <c r="AH134" s="1"/>
     </row>
-    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -11994,8 +12094,12 @@
       <c r="G135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H135" s="1"/>
-      <c r="I135" s="3"/>
+      <c r="H135" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J135" s="1" t="s">
         <v>97</v>
       </c>
@@ -12058,7 +12162,7 @@
       </c>
       <c r="AH135" s="1"/>
     </row>
-    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -12076,8 +12180,12 @@
       <c r="G136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H136" s="1"/>
-      <c r="I136" s="3"/>
+      <c r="H136" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J136" s="1" t="s">
         <v>97</v>
       </c>
@@ -12140,7 +12248,7 @@
       </c>
       <c r="AH136" s="1"/>
     </row>
-    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -12158,8 +12266,12 @@
       <c r="G137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H137" s="1"/>
-      <c r="I137" s="3"/>
+      <c r="H137" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J137" s="1" t="s">
         <v>97</v>
       </c>
@@ -12222,7 +12334,7 @@
       </c>
       <c r="AH137" s="1"/>
     </row>
-    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -12240,8 +12352,12 @@
       <c r="G138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H138" s="1"/>
-      <c r="I138" s="3"/>
+      <c r="H138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J138" s="1" t="s">
         <v>97</v>
       </c>
@@ -12304,7 +12420,7 @@
       </c>
       <c r="AH138" s="1"/>
     </row>
-    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -12322,8 +12438,12 @@
       <c r="G139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H139" s="1"/>
-      <c r="I139" s="3"/>
+      <c r="H139" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J139" s="1" t="s">
         <v>97</v>
       </c>
@@ -12386,7 +12506,7 @@
       </c>
       <c r="AH139" s="1"/>
     </row>
-    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -12404,8 +12524,12 @@
       <c r="G140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H140" s="1"/>
-      <c r="I140" s="3"/>
+      <c r="H140" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J140" s="1" t="s">
         <v>97</v>
       </c>
@@ -12468,7 +12592,7 @@
       </c>
       <c r="AH140" s="1"/>
     </row>
-    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -12486,8 +12610,12 @@
       <c r="G141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H141" s="1"/>
-      <c r="I141" s="3"/>
+      <c r="H141" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J141" s="1" t="s">
         <v>97</v>
       </c>
@@ -12550,7 +12678,7 @@
       </c>
       <c r="AH141" s="1"/>
     </row>
-    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -12568,8 +12696,12 @@
       <c r="G142" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H142" s="1"/>
-      <c r="I142" s="3"/>
+      <c r="H142" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J142" s="1" t="s">
         <v>97</v>
       </c>
@@ -12632,7 +12764,7 @@
       </c>
       <c r="AH142" s="1"/>
     </row>
-    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -12650,8 +12782,12 @@
       <c r="G143" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H143" s="1"/>
-      <c r="I143" s="3"/>
+      <c r="H143" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J143" s="1" t="s">
         <v>97</v>
       </c>
@@ -12714,7 +12850,7 @@
       </c>
       <c r="AH143" s="1"/>
     </row>
-    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -12792,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -12876,7 +13012,7 @@
       </c>
       <c r="AH145" s="14"/>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -12954,7 +13090,7 @@
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
     </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -13036,7 +13172,7 @@
       </c>
       <c r="AH147" s="14"/>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -13116,7 +13252,7 @@
       </c>
       <c r="AH148" s="1"/>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -13196,7 +13332,7 @@
       </c>
       <c r="AH149" s="1"/>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -13276,7 +13412,7 @@
       </c>
       <c r="AH150" s="1"/>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -13356,7 +13492,7 @@
       </c>
       <c r="AH151" s="1"/>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -13436,7 +13572,7 @@
       </c>
       <c r="AH152" s="1"/>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -13516,7 +13652,7 @@
       </c>
       <c r="AH153" s="1"/>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -13594,7 +13730,7 @@
       </c>
       <c r="AH154" s="14"/>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -13670,7 +13806,7 @@
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>155</v>
       </c>
@@ -13746,7 +13882,7 @@
       </c>
       <c r="AH156" s="11"/>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" s="10">
         <v>156</v>
       </c>
@@ -13824,7 +13960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -13904,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -13988,7 +14124,7 @@
       </c>
       <c r="AH159" s="14"/>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -14066,7 +14202,7 @@
       </c>
       <c r="AH160" s="7"/>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -14144,7 +14280,7 @@
       </c>
       <c r="AH161" s="7"/>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -14222,7 +14358,7 @@
       </c>
       <c r="AH162" s="7"/>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -14310,7 +14446,7 @@
       </c>
       <c r="AH163" s="14"/>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -14394,7 +14530,7 @@
       </c>
       <c r="AH164" s="7"/>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -14478,7 +14614,7 @@
       </c>
       <c r="AH165" s="7"/>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -14562,7 +14698,7 @@
       </c>
       <c r="AH166" s="7"/>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -14646,7 +14782,7 @@
       </c>
       <c r="AH167" s="7"/>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -14726,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -14744,8 +14880,12 @@
       <c r="G169" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H169" s="14"/>
-      <c r="I169" s="15"/>
+      <c r="H169" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I169" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="J169" s="14" t="s">
         <v>43</v>
       </c>
@@ -14810,7 +14950,7 @@
       </c>
       <c r="AH169" s="14"/>
     </row>
-    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -14828,8 +14968,12 @@
       <c r="G170" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H170" s="7"/>
-      <c r="I170" s="8"/>
+      <c r="H170" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J170" s="7" t="s">
         <v>45</v>
       </c>
@@ -14888,7 +15032,7 @@
       </c>
       <c r="AH170" s="7"/>
     </row>
-    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -14906,8 +15050,12 @@
       <c r="G171" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H171" s="7"/>
-      <c r="I171" s="8"/>
+      <c r="H171" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J171" s="7" t="s">
         <v>45</v>
       </c>
@@ -14966,7 +15114,7 @@
       </c>
       <c r="AH171" s="7"/>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -14984,8 +15132,12 @@
       <c r="G172" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H172" s="7"/>
-      <c r="I172" s="8"/>
+      <c r="H172" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J172" s="7" t="s">
         <v>45</v>
       </c>
@@ -15044,7 +15196,7 @@
       </c>
       <c r="AH172" s="7"/>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -15062,8 +15214,12 @@
       <c r="G173" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H173" s="14"/>
-      <c r="I173" s="15"/>
+      <c r="H173" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I173" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="J173" s="14" t="s">
         <v>43</v>
       </c>
@@ -15120,7 +15276,7 @@
       </c>
       <c r="AH173" s="14"/>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -15138,8 +15294,12 @@
       <c r="G174" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H174" s="7"/>
-      <c r="I174" s="8"/>
+      <c r="H174" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J174" s="7" t="s">
         <v>45</v>
       </c>
@@ -15198,7 +15358,7 @@
       </c>
       <c r="AH174" s="7"/>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -15216,8 +15376,12 @@
       <c r="G175" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H175" s="7"/>
-      <c r="I175" s="8"/>
+      <c r="H175" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J175" s="7" t="s">
         <v>45</v>
       </c>
@@ -15276,7 +15440,7 @@
       </c>
       <c r="AH175" s="7"/>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -15294,8 +15458,12 @@
       <c r="G176" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H176" s="14"/>
-      <c r="I176" s="15"/>
+      <c r="H176" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I176" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="J176" s="14" t="s">
         <v>43</v>
       </c>
@@ -15352,7 +15520,7 @@
       </c>
       <c r="AH176" s="14"/>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -15370,8 +15538,12 @@
       <c r="G177" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H177" s="7"/>
-      <c r="I177" s="8"/>
+      <c r="H177" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J177" s="7" t="s">
         <v>45</v>
       </c>
@@ -15430,7 +15602,7 @@
       </c>
       <c r="AH177" s="7"/>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -15448,8 +15620,12 @@
       <c r="G178" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H178" s="7"/>
-      <c r="I178" s="8"/>
+      <c r="H178" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J178" s="7" t="s">
         <v>45</v>
       </c>
@@ -15508,7 +15684,7 @@
       </c>
       <c r="AH178" s="7"/>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -15526,8 +15702,12 @@
       <c r="G179" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H179" s="7"/>
-      <c r="I179" s="8"/>
+      <c r="H179" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J179" s="7" t="s">
         <v>45</v>
       </c>
@@ -15586,7 +15766,7 @@
       </c>
       <c r="AH179" s="7"/>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -15604,8 +15784,12 @@
       <c r="G180" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H180" s="7"/>
-      <c r="I180" s="8"/>
+      <c r="H180" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I180" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="J180" s="7" t="s">
         <v>45</v>
       </c>
@@ -15664,7 +15848,7 @@
       </c>
       <c r="AH180" s="7"/>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -15744,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -15828,7 +16012,7 @@
       </c>
       <c r="AH182" s="14"/>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -15906,7 +16090,7 @@
       </c>
       <c r="AH183" s="7"/>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -15984,7 +16168,7 @@
       </c>
       <c r="AH184" s="7"/>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -16062,7 +16246,7 @@
       </c>
       <c r="AH185" s="7"/>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -16140,7 +16324,7 @@
       </c>
       <c r="AH186" s="7"/>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -16224,7 +16408,7 @@
       </c>
       <c r="AH187" s="14"/>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -16302,7 +16486,7 @@
       </c>
       <c r="AH188" s="7"/>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -16380,7 +16564,7 @@
       </c>
       <c r="AH189" s="7"/>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -16464,7 +16648,7 @@
       </c>
       <c r="AH190" s="14"/>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -16542,7 +16726,7 @@
       </c>
       <c r="AH191" s="7"/>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -16620,7 +16804,7 @@
       </c>
       <c r="AH192" s="7"/>
     </row>
-    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -16698,7 +16882,7 @@
       </c>
       <c r="AH193" s="7"/>
     </row>
-    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -16776,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -16860,7 +17044,7 @@
       </c>
       <c r="AH195" s="14"/>
     </row>
-    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -16944,7 +17128,7 @@
       </c>
       <c r="AH196" s="1"/>
     </row>
-    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -17028,7 +17212,7 @@
       </c>
       <c r="AH197" s="14"/>
     </row>
-    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -17106,7 +17290,7 @@
       </c>
       <c r="AH198" s="7"/>
     </row>
-    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -17124,8 +17308,12 @@
       <c r="G199" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H199" s="1"/>
-      <c r="I199" s="3"/>
+      <c r="H199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J199" s="1" t="s">
         <v>97</v>
       </c>
@@ -17190,7 +17378,7 @@
       </c>
       <c r="AH199" s="1"/>
     </row>
-    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -17278,7 +17466,7 @@
       </c>
       <c r="AH200" s="14"/>
     </row>
-    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -17372,7 +17560,7 @@
       </c>
       <c r="AH201" s="7"/>
     </row>
-    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -17466,7 +17654,7 @@
       </c>
       <c r="AH202" s="7"/>
     </row>
-    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -17546,7 +17734,7 @@
       </c>
       <c r="AH203" s="1"/>
     </row>
-    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -17628,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -17714,7 +17902,7 @@
       </c>
       <c r="AH205" s="14"/>
     </row>
-    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -17732,8 +17920,12 @@
       <c r="G206" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H206" s="1"/>
-      <c r="I206" s="3"/>
+      <c r="H206" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J206" s="1" t="s">
         <v>97</v>
       </c>
@@ -17796,7 +17988,7 @@
       </c>
       <c r="AH206" s="1"/>
     </row>
-    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -17814,8 +18006,12 @@
       <c r="G207" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H207" s="1"/>
-      <c r="I207" s="3"/>
+      <c r="H207" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J207" s="1" t="s">
         <v>97</v>
       </c>
@@ -17878,7 +18074,7 @@
       </c>
       <c r="AH207" s="1"/>
     </row>
-    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -17896,8 +18092,12 @@
       <c r="G208" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H208" s="1"/>
-      <c r="I208" s="3"/>
+      <c r="H208" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
@@ -17960,7 +18160,7 @@
       </c>
       <c r="AH208" s="1"/>
     </row>
-    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -17978,8 +18178,12 @@
       <c r="G209" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H209" s="1"/>
-      <c r="I209" s="3"/>
+      <c r="H209" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
@@ -18042,7 +18246,7 @@
       </c>
       <c r="AH209" s="1"/>
     </row>
-    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -18060,8 +18264,12 @@
       <c r="G210" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H210" s="1"/>
-      <c r="I210" s="3"/>
+      <c r="H210" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
@@ -18124,7 +18332,7 @@
       </c>
       <c r="AH210" s="1"/>
     </row>
-    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -18142,8 +18350,12 @@
       <c r="G211" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H211" s="1"/>
-      <c r="I211" s="3"/>
+      <c r="H211" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
@@ -18206,7 +18418,7 @@
       </c>
       <c r="AH211" s="1"/>
     </row>
-    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -18224,8 +18436,12 @@
       <c r="G212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H212" s="1"/>
-      <c r="I212" s="3"/>
+      <c r="H212" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
@@ -18288,7 +18504,7 @@
       </c>
       <c r="AH212" s="1"/>
     </row>
-    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -18306,8 +18522,12 @@
       <c r="G213" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H213" s="1"/>
-      <c r="I213" s="3"/>
+      <c r="H213" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
@@ -18370,7 +18590,7 @@
       </c>
       <c r="AH213" s="1"/>
     </row>
-    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -18388,8 +18608,12 @@
       <c r="G214" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H214" s="1"/>
-      <c r="I214" s="3"/>
+      <c r="H214" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J214" s="1" t="s">
         <v>97</v>
       </c>
@@ -18452,7 +18676,7 @@
       </c>
       <c r="AH214" s="1"/>
     </row>
-    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -18470,8 +18694,12 @@
       <c r="G215" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H215" s="1"/>
-      <c r="I215" s="3"/>
+      <c r="H215" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J215" s="1" t="s">
         <v>97</v>
       </c>
@@ -18534,7 +18762,7 @@
       </c>
       <c r="AH215" s="1"/>
     </row>
-    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -18552,8 +18780,12 @@
       <c r="G216" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H216" s="1"/>
-      <c r="I216" s="3"/>
+      <c r="H216" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J216" s="1" t="s">
         <v>97</v>
       </c>
@@ -18616,7 +18848,7 @@
       </c>
       <c r="AH216" s="1"/>
     </row>
-    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -18634,8 +18866,12 @@
       <c r="G217" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H217" s="1"/>
-      <c r="I217" s="3"/>
+      <c r="H217" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J217" s="1" t="s">
         <v>97</v>
       </c>
@@ -18698,7 +18934,7 @@
       </c>
       <c r="AH217" s="1"/>
     </row>
-    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -18716,8 +18952,12 @@
       <c r="G218" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H218" s="1"/>
-      <c r="I218" s="3"/>
+      <c r="H218" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J218" s="1" t="s">
         <v>97</v>
       </c>
@@ -18780,7 +19020,7 @@
       </c>
       <c r="AH218" s="1"/>
     </row>
-    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -18798,8 +19038,12 @@
       <c r="G219" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H219" s="1"/>
-      <c r="I219" s="3"/>
+      <c r="H219" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J219" s="1" t="s">
         <v>97</v>
       </c>
@@ -18862,7 +19106,7 @@
       </c>
       <c r="AH219" s="1"/>
     </row>
-    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -18880,8 +19124,12 @@
       <c r="G220" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H220" s="1"/>
-      <c r="I220" s="3"/>
+      <c r="H220" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J220" s="1" t="s">
         <v>97</v>
       </c>
@@ -18944,7 +19192,7 @@
       </c>
       <c r="AH220" s="1"/>
     </row>
-    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -19022,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -19106,7 +19354,7 @@
       </c>
       <c r="AH222" s="14"/>
     </row>
-    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -19184,7 +19432,7 @@
       <c r="AG223" s="1"/>
       <c r="AH223" s="1"/>
     </row>
-    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -19266,7 +19514,7 @@
       </c>
       <c r="AH224" s="14"/>
     </row>
-    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -19346,7 +19594,7 @@
       </c>
       <c r="AH225" s="1"/>
     </row>
-    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -19426,7 +19674,7 @@
       </c>
       <c r="AH226" s="1"/>
     </row>
-    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -19506,7 +19754,7 @@
       </c>
       <c r="AH227" s="1"/>
     </row>
-    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -19586,7 +19834,7 @@
       </c>
       <c r="AH228" s="1"/>
     </row>
-    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -19666,7 +19914,7 @@
       </c>
       <c r="AH229" s="1"/>
     </row>
-    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -19746,7 +19994,7 @@
       </c>
       <c r="AH230" s="1"/>
     </row>
-    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -19824,7 +20072,7 @@
       </c>
       <c r="AH231" s="14"/>
     </row>
-    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -19900,245 +20148,8 @@
       <c r="AG232" s="1"/>
       <c r="AH232" s="1"/>
     </row>
-    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="336" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="337" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="338" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="339" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="340" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="341" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="342" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="343" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="344" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="345" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="346" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="347" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="348" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="349" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="350" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="351" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="352" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="353" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="354" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="355" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="356" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="357" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="358" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="359" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="360" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="361" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="362" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="363" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="364" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="365" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="366" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="367" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="368" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="369" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="370" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="371" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="372" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="373" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="374" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="375" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="376" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="377" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="378" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="379" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="380" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="381" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="382" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="383" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="384" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="385" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="386" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="387" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="388" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="389" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="390" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="391" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="392" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="393" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="394" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="395" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="396" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="397" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="398" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="399" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="400" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="401" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="402" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="403" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="404" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="405" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="406" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="407" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="408" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="409" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="410" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="411" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="412" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="413" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="414" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="415" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="416" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="417" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="418" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="419" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="420" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="421" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="422" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="423" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="424" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="425" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="426" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="427" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="428" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="429" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="430" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="431" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="432" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="433" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="434" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="435" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="436" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="437" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="438" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="439" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="440" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="441" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="442" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="443" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="444" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="445" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="446" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="447" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="448" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="449" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="450" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="451" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="452" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="453" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="454" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="455" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="456" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="457" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="458" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="459" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="460" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="461" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="462" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="463" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:AH463" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MAGE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AH463" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/modelos/frames_nf_v11.xlsx
+++ b/config/modelos/frames_nf_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\config\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9AF82-1943-4C9D-A6B9-E80C733EC083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF1A38E-D593-41D0-9343-826FB0773AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,10 +1090,10 @@
   <dimension ref="A1:AH232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="A25:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
